--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.392360666666667</v>
+      </c>
+      <c r="H2">
+        <v>7.177082</v>
+      </c>
+      <c r="I2">
+        <v>0.3855356539589258</v>
+      </c>
+      <c r="J2">
+        <v>0.3855356539589258</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>1.232994333333333</v>
-      </c>
-      <c r="H2">
-        <v>3.698983</v>
-      </c>
-      <c r="I2">
-        <v>0.1643301600451615</v>
-      </c>
-      <c r="J2">
-        <v>0.1643301600451615</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N2">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O2">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P2">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q2">
-        <v>0.06930620047855555</v>
+        <v>0.2741190775473333</v>
       </c>
       <c r="R2">
-        <v>0.623755804307</v>
+        <v>2.467071697926</v>
       </c>
       <c r="S2">
-        <v>0.0005536032187986818</v>
+        <v>0.00294379990608737</v>
       </c>
       <c r="T2">
-        <v>0.0005536032187986816</v>
+        <v>0.00294379990608737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>44.563349</v>
       </c>
       <c r="O3">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P3">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q3">
-        <v>18.31545226378522</v>
+        <v>35.53720110751311</v>
       </c>
       <c r="R3">
-        <v>164.839070374067</v>
+        <v>319.834809967618</v>
       </c>
       <c r="S3">
-        <v>0.1462999451271668</v>
+        <v>0.3816385572975703</v>
       </c>
       <c r="T3">
-        <v>0.1462999451271668</v>
+        <v>0.3816385572975703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,114 +661,114 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H4">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N4">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P4">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q4">
-        <v>2.160328960435222</v>
+        <v>0.08876854253666668</v>
       </c>
       <c r="R4">
-        <v>19.442960643917</v>
+        <v>0.7989168828300001</v>
       </c>
       <c r="S4">
-        <v>0.01725624919419728</v>
+        <v>0.00095329675526808</v>
       </c>
       <c r="T4">
-        <v>0.01725624919419727</v>
+        <v>0.0009532967552680799</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.159122333333333</v>
+      </c>
+      <c r="H5">
+        <v>6.477366999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.3479486401683811</v>
+      </c>
+      <c r="J5">
+        <v>0.3479486401683811</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>1.232994333333333</v>
-      </c>
-      <c r="H5">
-        <v>3.698983</v>
-      </c>
-      <c r="I5">
-        <v>0.1643301600451615</v>
-      </c>
-      <c r="J5">
-        <v>0.1643301600451615</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N5">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P5">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q5">
-        <v>0.02758742621211111</v>
+        <v>0.2473943960756666</v>
       </c>
       <c r="R5">
-        <v>0.248286835909</v>
+        <v>2.226549564681</v>
       </c>
       <c r="S5">
-        <v>0.0002203625049986889</v>
+        <v>0.002656800126610429</v>
       </c>
       <c r="T5">
-        <v>0.0002203625049986889</v>
+        <v>0.002656800126610429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I6">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J6">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N6">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O6">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P6">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q6">
-        <v>0.1213635466492222</v>
+        <v>32.07257402467589</v>
       </c>
       <c r="R6">
-        <v>1.092271919843</v>
+        <v>288.653166222083</v>
       </c>
       <c r="S6">
-        <v>0.0009694262505505867</v>
+        <v>0.3444314830131369</v>
       </c>
       <c r="T6">
-        <v>0.0009694262505505864</v>
+        <v>0.3444314830131369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I7">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J7">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N7">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O7">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P7">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q7">
-        <v>32.07257402467589</v>
+        <v>0.08011423417833331</v>
       </c>
       <c r="R7">
-        <v>288.653166222083</v>
+        <v>0.7210281076049999</v>
       </c>
       <c r="S7">
-        <v>0.2561889137280494</v>
+        <v>0.0008603570286337172</v>
       </c>
       <c r="T7">
-        <v>0.2561889137280493</v>
+        <v>0.0008603570286337172</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,25 +906,25 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.159122333333333</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H8">
-        <v>6.477366999999999</v>
+        <v>0.290273</v>
       </c>
       <c r="I8">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J8">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,90 +933,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.752099666666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N8">
-        <v>5.256299</v>
+        <v>0.343743</v>
       </c>
       <c r="O8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P8">
-        <v>0.1050096293307016</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q8">
-        <v>3.782997520525889</v>
+        <v>0.01108659020433333</v>
       </c>
       <c r="R8">
-        <v>34.046977684733</v>
+        <v>0.099779311839</v>
       </c>
       <c r="S8">
-        <v>0.03021778123183319</v>
+        <v>0.0001190603131104952</v>
       </c>
       <c r="T8">
-        <v>0.03021778123183317</v>
+        <v>0.0001190603131104952</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.159122333333333</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H9">
-        <v>6.477366999999999</v>
+        <v>0.290273</v>
       </c>
       <c r="I9">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J9">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02237433333333333</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N9">
-        <v>0.067123</v>
+        <v>44.563349</v>
       </c>
       <c r="O9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P9">
-        <v>0.001340974200585751</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q9">
-        <v>0.04830892279344443</v>
+        <v>1.437281889364111</v>
       </c>
       <c r="R9">
-        <v>0.434780305141</v>
+        <v>12.935537004277</v>
       </c>
       <c r="S9">
-        <v>0.0003858814214382284</v>
+        <v>0.01543515441824931</v>
       </c>
       <c r="T9">
-        <v>0.0003858814214382284</v>
+        <v>0.01543515441824931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H10">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I10">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J10">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,33 +1057,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05620966666666666</v>
+        <v>0.037105</v>
       </c>
       <c r="N10">
-        <v>0.168629</v>
+        <v>0.111315</v>
       </c>
       <c r="O10">
-        <v>0.003368847317172573</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P10">
-        <v>0.003368847317172572</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q10">
-        <v>0.03632559076611111</v>
+        <v>0.003590193221666667</v>
       </c>
       <c r="R10">
-        <v>0.326930316895</v>
+        <v>0.032311738995</v>
       </c>
       <c r="S10">
-        <v>0.0002901611087323295</v>
+        <v>3.855554514243134E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002901611087323294</v>
+        <v>3.855554514243133E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H11">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I11">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J11">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>14.85444966666667</v>
+        <v>0.114581</v>
       </c>
       <c r="N11">
-        <v>44.563349</v>
+        <v>0.343743</v>
       </c>
       <c r="O11">
-        <v>0.8902805491515402</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P11">
-        <v>0.8902805491515401</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q11">
-        <v>9.599712854499446</v>
+        <v>0.09873589905933333</v>
       </c>
       <c r="R11">
-        <v>86.39741569049501</v>
+        <v>0.8886230915340001</v>
       </c>
       <c r="S11">
-        <v>0.07668046868964264</v>
+        <v>0.001060337474425246</v>
       </c>
       <c r="T11">
-        <v>0.07668046868964262</v>
+        <v>0.001060337474425246</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H12">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I12">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J12">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.752099666666667</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N12">
-        <v>5.256299</v>
+        <v>44.563349</v>
       </c>
       <c r="O12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P12">
-        <v>0.1050096293307016</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q12">
-        <v>1.132297329749445</v>
+        <v>12.80026743412911</v>
       </c>
       <c r="R12">
-        <v>10.190675967745</v>
+        <v>115.202406907162</v>
       </c>
       <c r="S12">
-        <v>0.009044550733673539</v>
+        <v>0.1374637125136826</v>
       </c>
       <c r="T12">
-        <v>0.009044550733673534</v>
+        <v>0.1374637125136826</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H13">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I13">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J13">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02237433333333333</v>
+        <v>0.037105</v>
       </c>
       <c r="N13">
-        <v>0.067123</v>
+        <v>0.111315</v>
       </c>
       <c r="O13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P13">
-        <v>0.001340974200585751</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q13">
-        <v>0.01445945020722222</v>
+        <v>0.03197384849666667</v>
       </c>
       <c r="R13">
-        <v>0.130135051865</v>
+        <v>0.28776463647</v>
       </c>
       <c r="S13">
-        <v>0.0001154990191570854</v>
+        <v>0.0003433712569147481</v>
       </c>
       <c r="T13">
-        <v>0.0001154990191570854</v>
+        <v>0.000343371256914748</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H14">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I14">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J14">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.05620966666666666</v>
+        <v>0.114581</v>
       </c>
       <c r="N14">
-        <v>0.168629</v>
+        <v>0.343743</v>
       </c>
       <c r="O14">
-        <v>0.003368847317172573</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P14">
-        <v>0.003368847317172572</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q14">
-        <v>0.1155825697981111</v>
+        <v>0.02543209321066667</v>
       </c>
       <c r="R14">
-        <v>1.040243128183</v>
+        <v>0.228888838896</v>
       </c>
       <c r="S14">
-        <v>0.000923249034508192</v>
+        <v>0.0002731185084782659</v>
       </c>
       <c r="T14">
-        <v>0.0009232490345081919</v>
+        <v>0.0002731185084782659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H15">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I15">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J15">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>44.563349</v>
       </c>
       <c r="O15">
-        <v>0.8902805491515402</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P15">
-        <v>0.8902805491515401</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q15">
-        <v>30.54484339129144</v>
+        <v>3.297054036147556</v>
       </c>
       <c r="R15">
-        <v>274.903590521623</v>
+        <v>29.673486325328</v>
       </c>
       <c r="S15">
-        <v>0.2439857256978432</v>
+        <v>0.03540748585913436</v>
       </c>
       <c r="T15">
-        <v>0.2439857256978432</v>
+        <v>0.03540748585913436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H16">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I16">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J16">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.752099666666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N16">
-        <v>5.256299</v>
+        <v>0.111315</v>
       </c>
       <c r="O16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P16">
-        <v>0.1050096293307016</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q16">
-        <v>3.602799910141445</v>
+        <v>0.008235726853333333</v>
       </c>
       <c r="R16">
-        <v>32.425199191273</v>
+        <v>0.07412154168</v>
       </c>
       <c r="S16">
-        <v>0.02877840096802078</v>
+        <v>8.844452620492102E-05</v>
       </c>
       <c r="T16">
-        <v>0.02877840096802077</v>
+        <v>8.844452620492102E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.056275666666667</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H17">
-        <v>6.168827</v>
+        <v>1.420139</v>
       </c>
       <c r="I17">
-        <v>0.2740548762189265</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J17">
-        <v>0.2740548762189265</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02237433333333333</v>
+        <v>0.114581</v>
       </c>
       <c r="N17">
-        <v>0.067123</v>
+        <v>0.343743</v>
       </c>
       <c r="O17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="P17">
-        <v>0.001340974200585751</v>
+        <v>0.007635610029470834</v>
       </c>
       <c r="Q17">
-        <v>0.04600779719122222</v>
+        <v>0.05424031558633334</v>
       </c>
       <c r="R17">
-        <v>0.4140701747210001</v>
+        <v>0.488162840277</v>
       </c>
       <c r="S17">
-        <v>0.0003675005185543019</v>
+        <v>0.0005824937007590289</v>
       </c>
       <c r="T17">
-        <v>0.0003675005185543019</v>
+        <v>0.0005824937007590288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H18">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I18">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J18">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.05620966666666666</v>
+        <v>14.85444966666667</v>
       </c>
       <c r="N18">
-        <v>0.168629</v>
+        <v>44.563349</v>
       </c>
       <c r="O18">
-        <v>0.003368847317172573</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="P18">
-        <v>0.003368847317172572</v>
+        <v>0.9898917347297518</v>
       </c>
       <c r="Q18">
-        <v>0.005391350178333334</v>
+        <v>7.031794431723445</v>
       </c>
       <c r="R18">
-        <v>0.04852215160500001</v>
+        <v>63.28614988551101</v>
       </c>
       <c r="S18">
-        <v>4.30649608806601E-05</v>
+        <v>0.07551534162797838</v>
       </c>
       <c r="T18">
-        <v>4.306496088066008E-05</v>
+        <v>0.07551534162797836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,427 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H19">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I19">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J19">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>14.85444966666667</v>
+        <v>0.037105</v>
       </c>
       <c r="N19">
-        <v>44.563349</v>
+        <v>0.111315</v>
       </c>
       <c r="O19">
-        <v>0.8902805491515402</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="P19">
-        <v>0.8902805491515401</v>
+        <v>0.0024726552407774</v>
       </c>
       <c r="Q19">
-        <v>1.424764539778334</v>
+        <v>0.01756475253166667</v>
       </c>
       <c r="R19">
-        <v>12.822880858005</v>
+        <v>0.158082772785</v>
       </c>
       <c r="S19">
-        <v>0.01138071672960288</v>
+        <v>0.0001886301286135028</v>
       </c>
       <c r="T19">
-        <v>0.01138071672960287</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.09591500000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.287745</v>
-      </c>
-      <c r="I20">
-        <v>0.01278329257047005</v>
-      </c>
-      <c r="J20">
-        <v>0.01278329257047004</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N20">
-        <v>5.256299</v>
-      </c>
-      <c r="O20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P20">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q20">
-        <v>0.1680526395283334</v>
-      </c>
-      <c r="R20">
-        <v>1.512473755755</v>
-      </c>
-      <c r="S20">
-        <v>0.001342368814450971</v>
-      </c>
-      <c r="T20">
-        <v>0.00134236881445097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.09591500000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.287745</v>
-      </c>
-      <c r="I21">
-        <v>0.01278329257047005</v>
-      </c>
-      <c r="J21">
-        <v>0.01278329257047004</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.067123</v>
-      </c>
-      <c r="O21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P21">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q21">
-        <v>0.002146034181666667</v>
-      </c>
-      <c r="R21">
-        <v>0.019314307635</v>
-      </c>
-      <c r="S21">
-        <v>1.714206553553984E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.714206553553983E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>1.312594</v>
-      </c>
-      <c r="H22">
-        <v>3.937782</v>
-      </c>
-      <c r="I22">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J22">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.05620966666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.168629</v>
-      </c>
-      <c r="O22">
-        <v>0.003368847317172573</v>
-      </c>
-      <c r="P22">
-        <v>0.003368847317172572</v>
-      </c>
-      <c r="Q22">
-        <v>0.07378047120866667</v>
-      </c>
-      <c r="R22">
-        <v>0.664024240878</v>
-      </c>
-      <c r="S22">
-        <v>0.0005893427437021232</v>
-      </c>
-      <c r="T22">
-        <v>0.0005893427437021231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>1.312594</v>
-      </c>
-      <c r="H23">
-        <v>3.937782</v>
-      </c>
-      <c r="I23">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J23">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>14.85444966666667</v>
-      </c>
-      <c r="N23">
-        <v>44.563349</v>
-      </c>
-      <c r="O23">
-        <v>0.8902805491515402</v>
-      </c>
-      <c r="P23">
-        <v>0.8902805491515401</v>
-      </c>
-      <c r="Q23">
-        <v>19.49786150576867</v>
-      </c>
-      <c r="R23">
-        <v>175.480753551918</v>
-      </c>
-      <c r="S23">
-        <v>0.1557447791792353</v>
-      </c>
-      <c r="T23">
-        <v>0.1557447791792353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>1.312594</v>
-      </c>
-      <c r="H24">
-        <v>3.937782</v>
-      </c>
-      <c r="I24">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J24">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>1.752099666666667</v>
-      </c>
-      <c r="N24">
-        <v>5.256299</v>
-      </c>
-      <c r="O24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="P24">
-        <v>0.1050096293307016</v>
-      </c>
-      <c r="Q24">
-        <v>2.299795509868667</v>
-      </c>
-      <c r="R24">
-        <v>20.698159588818</v>
-      </c>
-      <c r="S24">
-        <v>0.01837027838852586</v>
-      </c>
-      <c r="T24">
-        <v>0.01837027838852585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>1.312594</v>
-      </c>
-      <c r="H25">
-        <v>3.937782</v>
-      </c>
-      <c r="I25">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J25">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.02237433333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.067123</v>
-      </c>
-      <c r="O25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="P25">
-        <v>0.001340974200585751</v>
-      </c>
-      <c r="Q25">
-        <v>0.02936841568733333</v>
-      </c>
-      <c r="R25">
-        <v>0.264315741186</v>
-      </c>
-      <c r="S25">
-        <v>0.0002345886709019066</v>
-      </c>
-      <c r="T25">
-        <v>0.0002345886709019066</v>
+        <v>0.0001886301286135028</v>
       </c>
     </row>
   </sheetData>
